--- a/SampleScript/Utility/SeleniumUtility.xlsx
+++ b/SampleScript/Utility/SeleniumUtility.xlsx
@@ -198,9 +198,6 @@
     <t>E:\Open2Test\Open2Test_Selenium\SampleScript\TestCase\</t>
   </si>
   <si>
-    <t>E:\Open2Test\Open2Test_Selenium\SampleScript\TestOR\TestObjectItemsList.xlsx</t>
-  </si>
-  <si>
     <t>E:\Open2Test\Open2Test_Selenium\SampleScript\report\</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>E:\Open2Test\Open2Test_Selenium\SampleScript\Driver\</t>
+  </si>
+  <si>
+    <t>E:\Open2Test\Open2Test_Selenium\SampleScript\TestOR\DemoOR.xlsx</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -850,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -882,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -946,7 +946,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>

--- a/SampleScript/Utility/SeleniumUtility.xlsx
+++ b/SampleScript/Utility/SeleniumUtility.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="browserType">Sheet1!$P$1:$P$3</definedName>
-    <definedName name="nbrowsertype">Sheet2!$C$1:$C$8</definedName>
+    <definedName name="nbrowsertype">Sheet2!$B$1:$B$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$B$48</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -56,44 +56,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>KUDOU Keisuke / 工藤 圭介</author>
-  </authors>
-  <commentList>
-    <comment ref="A5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>KUDOU Keisuke / 工藤 圭介:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-mssqlとmysqlが対象</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>File\Folder Name</t>
   </si>
@@ -119,16 +83,6 @@
     <t>Test Script</t>
   </si>
   <si>
-    <t>参照先フォルダ</t>
-    <rPh sb="0" eb="2">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Browser Type</t>
   </si>
   <si>
@@ -208,6 +162,12 @@
   </si>
   <si>
     <t>E:\Open2Test\Open2Test_Selenium\SampleScript\TestOR\DemoOR.xlsx</t>
+  </si>
+  <si>
+    <t>E:\Open2Test\Open2Test_Selenium\SampleScript\Temp</t>
+  </si>
+  <si>
+    <t>E:\Open2Test\Open2Test_Selenium\SampleScript\FileManager\FileManager.exe</t>
   </si>
 </sst>
 </file>
@@ -280,7 +240,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,18 +249,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -336,39 +290,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -677,7 +615,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -724,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -756,7 +694,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -788,7 +726,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -850,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -882,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -911,10 +849,10 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -943,10 +881,10 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -975,11 +913,10 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3" t="str">
-        <f>Sheet2!A2&amp;"\Tmep"</f>
-        <v>\Tmep</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1008,11 +945,10 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="str">
-        <f>Sheet2!A2&amp;"\FileManagementEXE\FileManager.exe"</f>
-        <v>\FileManagementEXE\FileManager.exe</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1041,7 +977,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4"/>
       <c r="D12" s="8"/>
@@ -1071,7 +1007,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4"/>
       <c r="D13" s="8"/>
@@ -1101,7 +1037,7 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4"/>
       <c r="D14" s="8"/>
@@ -1131,7 +1067,7 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4"/>
       <c r="D15" s="8"/>
@@ -1161,7 +1097,7 @@
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4"/>
       <c r="D16" s="8"/>
@@ -1191,7 +1127,7 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="8"/>
@@ -1222,10 +1158,10 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1255,10 +1191,10 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1459,7 +1395,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet2!$C$1:$C$8</xm:f>
+            <xm:f>Sheet2!$B$1:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>B8</xm:sqref>
         </x14:dataValidation>
@@ -1470,55 +1406,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:S19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="91.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="2:18">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="9"/>
-      <c r="C2" t="s">
+    <row r="3" spans="2:18">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="9"/>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="9"/>
-      <c r="C4" t="s">
+    <row r="4" spans="2:18">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="12"/>
-      <c r="C5" t="s">
+    <row r="6" spans="2:18">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="12"/>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
+      <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -1531,13 +1457,12 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="12"/>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1550,13 +1475,12 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="12"/>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1569,10 +1493,9 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="12"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -1585,10 +1508,9 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="13"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -1601,10 +1523,9 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="9"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1617,10 +1538,10 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="G12" s="8"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1632,9 +1553,9 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-    </row>
-    <row r="13" spans="1:19">
+    </row>
+    <row r="13" spans="2:18">
+      <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -1647,9 +1568,9 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-    </row>
-    <row r="14" spans="1:19">
+    </row>
+    <row r="14" spans="2:18">
+      <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1662,9 +1583,9 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="1:19">
+    </row>
+    <row r="15" spans="2:18">
+      <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -1677,9 +1598,9 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-    </row>
-    <row r="16" spans="1:19">
+    </row>
+    <row r="16" spans="2:18">
+      <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1692,9 +1613,9 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-    </row>
-    <row r="17" spans="7:19">
+    </row>
+    <row r="17" spans="6:18">
+      <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1707,9 +1628,9 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-    </row>
-    <row r="18" spans="7:19">
+    </row>
+    <row r="18" spans="6:18">
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1722,9 +1643,9 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-    </row>
-    <row r="19" spans="7:19">
+    </row>
+    <row r="19" spans="6:18">
+      <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1737,20 +1658,15 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
-      <formula1>"mssql,mysql"</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C8">
-      <formula1>$C$1:$C$8</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B8">
+      <formula1>$B$1:$B$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1758,7 +1674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
